--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aaron James Finch</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3474</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3552</t>
+          <t>3552</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1025,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3563</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3564</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3565</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2516,7 +2580,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3898</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3656,7 +3719,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -3664,7 +3726,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3716,7 +3778,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3768,7 +3830,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3909</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3820,7 +3882,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3872,7 +3934,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3924,7 +3986,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3976,7 +4038,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4016,7 +4078,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4076,7 +4137,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4128,7 +4189,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4180,7 +4241,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4232,7 +4293,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4284,7 +4345,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4397,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4388,7 +4449,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4440,7 +4501,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4492,7 +4553,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4544,7 +4605,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4596,7 +4657,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4648,7 +4709,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4700,7 +4761,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4752,7 +4813,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4804,7 +4865,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4856,7 +4917,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4908,7 +4969,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4960,7 +5021,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5012,7 +5073,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5064,7 +5125,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5116,7 +5177,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5168,7 +5229,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5220,7 +5281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5272,7 +5333,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5324,7 +5385,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5376,7 +5437,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5428,7 +5489,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5480,7 +5541,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5532,7 +5593,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5584,7 +5645,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4236</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5636,7 +5697,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5688,7 +5749,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5740,7 +5801,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5792,7 +5853,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5844,7 +5905,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5896,7 +5957,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5948,7 +6009,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6000,7 +6061,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6052,7 +6113,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6104,7 +6165,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6156,7 +6217,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6208,7 +6269,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6260,7 +6321,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6312,7 +6373,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6364,7 +6425,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6416,7 +6477,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6468,7 +6529,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6520,7 +6581,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6572,7 +6633,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6624,7 +6685,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6676,7 +6737,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6728,7 +6789,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6780,7 +6841,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6832,7 +6893,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6884,7 +6945,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6936,7 +6997,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6988,7 +7049,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7040,7 +7101,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7092,7 +7153,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7144,7 +7205,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7196,7 +7257,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7248,7 +7309,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7300,7 +7361,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7352,7 +7413,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7404,7 +7465,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7456,7 +7517,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7508,7 +7569,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7560,7 +7621,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7612,7 +7673,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7664,7 +7725,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7716,7 +7777,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7768,7 +7829,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7820,7 +7881,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7872,7 +7933,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7924,7 +7985,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7976,7 +8037,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8028,7 +8089,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8067,7 +8128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8089,7 +8150,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8126,7 +8187,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8163,7 +8224,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3562</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8200,7 +8261,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3568</t>
+          <t>3568</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8237,7 +8298,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3572</t>
+          <t>3572</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8274,7 +8335,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8311,7 +8372,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8348,7 +8409,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8385,7 +8446,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8422,7 +8483,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3905</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8459,7 +8520,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8496,7 +8557,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8533,7 +8594,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8570,7 +8631,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8607,7 +8668,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8644,7 +8705,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8681,7 +8742,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8718,7 +8779,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8755,7 +8816,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8792,7 +8853,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -8829,7 +8890,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8866,7 +8927,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -8892,6 +8953,557 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>0/11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.44%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.27%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.95%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9103,10 +9104,6 @@
           <t>4435</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9119,393 +9116,645 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.95%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4437</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.95%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.35%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.41%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.46%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.87%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,7 +1037,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2593,7 +2592,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3732,7 +3731,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -9104,6 +9103,10 @@
           <t>4435</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9116,6 +9119,10 @@
           <t>4436</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9188,6 +9195,10 @@
           <t>4565</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9213,6 +9224,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9225,6 +9237,10 @@
           <t>4594</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9267,6 +9283,10 @@
           <t>4600</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9292,6 +9312,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9317,6 +9338,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9419,6 +9441,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9444,6 +9470,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9479,282 +9506,6 @@
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3562</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3568</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3572</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3668</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3746</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3894</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3896</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3905</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4115</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4168</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4268</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3845.xlsx
@@ -8967,7 +8967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9010,15 +9010,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.44%</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9040,25 +9040,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.27%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9070,7 +9070,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>14.08%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9100,13 +9100,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>3472</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9116,13 +9130,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>3473</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11.55%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9132,7 +9160,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>3474</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -9140,17 +9168,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>25.95%</t>
+          <t>11.31%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -9162,7 +9190,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -9175,12 +9203,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -9192,13 +9220,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.88%</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9208,7 +9250,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4567</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -9216,15 +9258,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9234,7 +9280,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -9250,15 +9296,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4597</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -9266,11 +9312,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.41%</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9280,13 +9322,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>3559</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.72%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9296,22 +9352,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
@@ -9322,23 +9368,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>3563</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.93%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9348,15 +9398,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4644</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9366,7 +9416,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.46%</t>
+          <t>12.50%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -9378,27 +9428,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9408,27 +9444,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9438,13 +9460,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>3572</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9454,22 +9490,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -9480,28 +9506,3134 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>9.02%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.23%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3659</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19.14%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3663</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.19%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5.26%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.67%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3677</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.45%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.79%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5.19%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>33.13%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.47%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>9.27%</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15.04%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.70%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5.02%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2.58%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7.09%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>50.70%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4.51%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3898</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3903</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>17.41%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5.03%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1.43%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.79%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>15.09%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.89%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>42.32%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13.22%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>39.26%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.68%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>8.88%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10.73%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4222</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>17.75%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4236</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6.09%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>15.29%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.71%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>41.28%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>53.68%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>33.83%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>16.21%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>31.58%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>11.39%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>26.71%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>45.81%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>35.09%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>3.29%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>42.64%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10.86%</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>6.64%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>4.61%</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>23.26%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>5.44%</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>35.27%</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.95%</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>7.35%</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>7.41%</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
           <t>4649</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B147" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>1.87%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
